--- a/src/Assets/Images/Sample/sample_excel.xlsx
+++ b/src/Assets/Images/Sample/sample_excel.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\정리\@\개발소스\샘플 소스\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/94779d10ae73bf0e/20.PROJECT/2023/IITP/300.설계/50.서비스기획/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A481DAB-D13D-489C-A461-3037D5CB0F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B374288D-E989-4266-ABF5-D1A7EC45C309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1095" windowWidth="27675" windowHeight="15105" xr2:uid="{516D2A04-27A9-4D62-8CFD-25B8241A13B4}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C7DEBF6B-E9EF-414E-B6E6-79B8A41D9198}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,9 +25,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>sample</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>과제명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글키워드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영문키워드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구목표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기대효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자력연구개발중장기계획(기금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전해환원;사용후핵연료 부피감용;우라늄 금속;LiCl-Li2O;U3O8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electrolytic Reduction;SF Volume Reduction;Uranium Metal;LiCl-Li2O Molten Salt;U3O8 Powder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWR 사용후핵연료 금속전환을 위한 공학규모의 전해환원 Mock­up 시스템 개발 ­ ­ 2011년까지 PWR 사용후핵연료의 금속전환과 고방열성 핵종의 선택적 제거를 위한 공학규모 Mock­up 전해환원시스템 개발  ­ 기술적 목표    ․ 금속전환율 및 회수율 : &gt; 99 %    ․ 고 전류밀도 구현 및 Scale­up성이 향상된 전해환원시스템 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본 연구는 Lab­scale(20 kgHM/batch) 실증용 전해환원시스템을 이용한 SIMFUEL의 전해환원반응 구현성 평가, 주요 핵종의 분배계수 측정, 공정장치의 핫셀 운전성 및 성능 향상을 위한 연구, 전해환원 금속전환시스템의 최적화 연구, 그리고 공정해석용 기초 데이터 생산의 세부연구항목으로 구성됨. ○ SIMFUEL를 이용한  Lab­scale(20 kgHM/batch) 전해환원시스템의 성능평가    ­ ­ 전해환원 반응성 평가    ­ ­ 공정변수 최적화 및 Scale­up 설계자료 생산    ­ ­ 물질수지 및 Cell 전위수지 분석/평가 ○ 전해환원시스템 공정개선 및 최적화 기술개발    ­ ­ 고온 LiCl­Li2O 용융염계에서 Magnesia Membrane의 안정성 향상기술    ­ ­ 장치재료 부식생성물의 조성분석 및 전해환원반응에 미치는 영향평가    ­ ­ Li금속 이용 금속분말 용융 기술개발 및 Dross 분리특성 평가 ○ 공정해석용 반응공학 및 물리.화학적 데이터 생산    ­ 주요 산화물의 전해환원 반응속도 측정    ­ 희토류 산화물의 분배계수 측정    ­ 산화물 입자특성에 따른 산소이온 확산계수 데이터 생산    ­ 전해환원시스템의 수학적 모델 검증 및 수정.보완</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○ 본 과제에서 개발한 고온 용융염 전해환원시스템은 원자력중장기 연구개발사업의 핵심목표인“PWR 사용후핵연료 부피감용 기술”의 실현을 위한 핵심기술로의 활용은 물론 본 기술의 높은 기술성 및 경제성으로 인해 2040년경에 본격적으로 도입예정인 GEN­IV 원자로시스템 핵연료주기의 기준공정으로 활용될 전망임. ○ 또한 전해환원기술은 탄탈륨, 니오븀 및 티탄늄 등 고부가가치 금속분말 제조에 우수한 기술성 및 경제성으로 인해 앞으로 기존기술을 대체할 수 있는 차세대 기술로서 잠재력은 물론 산업적 활용이 크게 확대될 전망임.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 1개 과제에 대해서만 입력 지원합니다. (A2 ~ F2 셀의 데이터만 입력 지원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 샘플 과제 정보를 양식에 맞게 수정하여 작성해주세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -35,7 +87,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,21 +103,73 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -74,8 +178,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -391,16 +507,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0C9FBD-0502-4702-8922-7FCEA1326839}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E050D7-3647-49CA-B87F-9D9EE015AE1D}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="6" width="41.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="283.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
